--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ichakir\OneDrive - VFC Corp\Desktop\new-accounts-evaluation\Tracker\PBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ichakir\OneDrive - VFC Corp\Desktop\portfolio projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E072E74-EF1F-4938-B914-6D6A20EFD991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED27BE-9365-46E1-9255-E57FF02C1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5D110917-A94D-46EE-9220-7959A887281F}"/>
   </bookViews>
@@ -74,63 +74,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>2025-10-27_00_invio_dati</t>
-  </si>
-  <si>
-    <t>primo invio dati</t>
-  </si>
-  <si>
-    <t>follow up</t>
-  </si>
-  <si>
-    <t>2025-11-04_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-11-10_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-11-06_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-03_01_invio_dati</t>
-  </si>
-  <si>
-    <t>invio dati</t>
-  </si>
-  <si>
-    <t>2025-11-17_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-04_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-08_02_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-03_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-10_00_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-10_01_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-15_03_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-15_02_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-15_01_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-16_02_invio_dati</t>
-  </si>
-  <si>
-    <t>2025-12-19_02_invio_dati</t>
-  </si>
-  <si>
     <t>Account1</t>
   </si>
   <si>
@@ -681,6 +624,63 @@
   </si>
   <si>
     <t>https://example.com/test83</t>
+  </si>
+  <si>
+    <t>First submission</t>
+  </si>
+  <si>
+    <t>Data submission</t>
+  </si>
+  <si>
+    <t>Follow-up</t>
+  </si>
+  <si>
+    <t>2025-10-27_00_Data</t>
+  </si>
+  <si>
+    <t>2025-11-04_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-10_01_Data</t>
+  </si>
+  <si>
+    <t>2025-11-10_00_Data</t>
+  </si>
+  <si>
+    <t>2025-11-06_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-10_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-03_01_Data</t>
+  </si>
+  <si>
+    <t>2025-11-17_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-19_02_Data</t>
+  </si>
+  <si>
+    <t>2025-12-04_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-15_01_Data</t>
+  </si>
+  <si>
+    <t>2025-12-08_02_Data</t>
+  </si>
+  <si>
+    <t>2025-12-03_00_Data</t>
+  </si>
+  <si>
+    <t>2025-12-15_03_Data</t>
+  </si>
+  <si>
+    <t>2025-12-15_02_Data</t>
+  </si>
+  <si>
+    <t>2025-12-16_02_Data</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD755E8-2E8F-4E68-953C-60B11C36FE25}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1134,7 @@
     <col min="7" max="7" width="28.81640625" customWidth="1"/>
     <col min="8" max="9" width="25.453125" customWidth="1"/>
     <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1174,2636 +1174,2637 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="E2" s="6">
         <v>45957</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6">
         <v>45965</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6">
         <v>45965</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6">
         <v>45971</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>45971</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="E7" s="6">
         <v>45965</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>45971</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6">
         <v>45971</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6">
         <v>46006</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6">
         <v>45967</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
       <c r="C12">
         <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6">
         <v>46001</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
       <c r="C13">
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6">
         <v>45971</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
       </c>
       <c r="C14">
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E14" s="6">
         <v>45971</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="E15" s="6">
         <v>45967</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6">
         <v>45999</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="E17" s="6">
         <v>45967</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6">
         <v>46001</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="E19" s="6">
         <v>45967</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E20" s="6">
         <v>46001</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E21" s="6">
         <v>45971</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6">
         <v>45971</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6">
         <v>45971</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E24" s="6">
         <v>45971</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6">
         <v>46001</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E26" s="6">
         <v>45971</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E27" s="6">
         <v>45971</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E28" s="6">
         <v>45994</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E29" s="6">
         <v>45994</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E30" s="6">
         <v>45994</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="E31" s="6">
         <v>45978</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
         <v>45978</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E33" s="6">
         <v>45978</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6">
         <v>45978</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="E35" s="6">
         <v>45978</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E36" s="6">
         <v>45979</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6">
         <v>45979</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="E38" s="6">
         <v>46010</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E39" s="6">
         <v>45995</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="E40" s="6">
         <v>46006</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="E41" s="6">
         <v>45965</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E42" s="6">
         <v>45971</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6">
         <v>45971</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E44" s="6">
         <v>45971</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E45" s="6">
         <v>45994</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E46" s="6">
         <v>45994</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E47" s="6">
         <v>45994</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E48" s="6">
         <v>45999</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="E49" s="6">
         <v>45965</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6">
         <v>45971</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E51" s="6">
         <v>45971</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E52" s="6">
         <v>45971</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E53" s="6">
         <v>45994</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E54" s="6">
         <v>45994</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E55" s="6">
         <v>45994</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E56" s="6">
         <v>45971</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E57" s="6">
         <v>45971</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E58" s="6">
         <v>45994</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E59" s="6">
         <v>46001</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
       </c>
       <c r="C60">
         <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E60" s="6">
         <v>45971</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E61" s="6">
         <v>46001</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E62" s="6">
         <v>45971</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E63" s="6">
         <v>45971</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E64" s="6">
         <v>45995</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K64" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E65" s="6">
         <v>46001</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E66" s="6">
         <v>46001</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E67" s="6">
         <v>45971</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K67" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E68" s="6">
         <v>45995</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E69" s="6">
         <v>46001</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E70" s="6">
         <v>46001</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K70" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E71" s="6">
         <v>46001</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E72" s="6">
         <v>46001</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E73" s="6">
         <v>46002</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6">
         <v>46001</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
         <v>33</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
       </c>
       <c r="C75">
         <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E75" s="6">
         <v>46001</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K75" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E76" s="6">
         <v>46006</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="E77" s="6">
         <v>46006</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="E78" s="6">
         <v>46006</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E79" s="6">
         <v>46001</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K79" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E80" s="6">
         <v>46001</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K80" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C81">
         <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="E81" s="6">
         <v>46007</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="K81" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C82">
         <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E82" s="6">
         <v>46007</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K82" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E83" s="6">
         <v>46006</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="K83" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E84" s="6">
         <v>45994</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K84" xr:uid="{FAD755E8-2E8F-4E68-953C-60B11C36FE25}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{E86A691C-6D2A-4666-A888-DE1BBDDC070B}"/>
